--- a/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>160910</t>
-  </si>
-  <si>
-    <t>006369</t>
-  </si>
-  <si>
-    <t>大成创新成长混合(LOF)</t>
-  </si>
-  <si>
-    <t>弘毅远方国企转型升级混合</t>
-  </si>
-  <si>
-    <t>15.38</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>89.29</t>
-  </si>
-  <si>
-    <t>90.13</t>
-  </si>
-  <si>
-    <t>4.31</t>
-  </si>
-  <si>
-    <t>3.56</t>
-  </si>
-  <si>
-    <t>0.6629</t>
-  </si>
-  <si>
-    <t>0.0246</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6629</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.66</v>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +806,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.53</v>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.66</v>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1102,13 +1167,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.99</v>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.53</v>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.66</v>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1528,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,129 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成创新成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6629</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006369</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>弘毅远方国企转型升级混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -587,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -638,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160910</t>
+          <t>000390</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成创新成长混合(LOF)</t>
+          <t>华商优势行业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>19.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.63</t>
+          <t>91.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6274</t>
+          <t>0.5415</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -676,36 +660,340 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006369</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>弘毅远方国企转型升级混合</t>
+          <t>华商乐享互联灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>91.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.2628</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -780,26 +1068,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.44</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.53</t>
+          <t>70.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6397</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -808,36 +1096,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>011346</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.53</t>
+          <t>67.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5141</t>
+          <t>0.1541</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -846,36 +1134,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.65</t>
+          <t>76.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1430</t>
+          <t>0.1418</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -884,32 +1172,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501201</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+          <t>华商乐享互联灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>88.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1422</t>
+          <t>0.1058</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -922,36 +1210,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006369</t>
+          <t>012454</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>弘毅远方国企转型升级混合</t>
+          <t>淳厚鑫悦混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>76.84</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.1046</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -960,36 +1248,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010403</t>
+          <t>012455</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商景气优选混合</t>
+          <t>淳厚鑫悦混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>76.84</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -998,36 +1286,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>168401</t>
+          <t>006369</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
+          <t>弘毅远方国企转型升级混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.65</t>
+          <t>87.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1102,26 +1390,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.73</t>
+          <t>79.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4375</t>
+          <t>0.6397</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1130,36 +1418,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011346</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>23.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67.80</t>
+          <t>83.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1541</t>
+          <t>0.5141</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1168,36 +1456,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>华商乐享互联灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.99</t>
+          <t>85.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1418</t>
+          <t>0.1430</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1206,32 +1494,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>501201</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合</t>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.84</t>
+          <t>98.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1058</t>
+          <t>0.1422</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1244,36 +1532,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012454</t>
+          <t>006369</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>淳厚鑫悦混合A</t>
+          <t>弘毅远方国企转型升级混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76.84</t>
+          <t>89.39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1046</t>
+          <t>0.0368</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1282,36 +1570,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012455</t>
+          <t>010403</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>淳厚鑫悦混合C</t>
+          <t>华商景气优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.84</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0250</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1320,36 +1608,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006369</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>弘毅远方国企转型升级混合</t>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.56</t>
+          <t>78.65</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0242</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1384,7 +1672,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1414,36 +1702,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>160910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>大成创新成长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.34</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>88.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5415</t>
+          <t>0.6274</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1452,340 +1740,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>006369</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合</t>
+          <t>弘毅远方国企转型升级混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.51</t>
+          <t>89.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2628</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1293</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>014126</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0811</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010403</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商景气优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000166</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中海信息产业精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>013142</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014125</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>165524</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信诚中证智能家居指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>013084</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>信诚中证智能家居指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1799,112 +1783,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.09</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6629</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6899999999999999</v>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1.09</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.53</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.66</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -566,6 +583,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0500</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8246</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5711</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014243</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -994,328 +1637,6 @@
       </c>
       <c r="H11" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4375</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011346</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>67.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1541</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1418</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012454</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>淳厚鑫悦混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>76.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1046</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012455</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>淳厚鑫悦混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006369</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>弘毅远方国企转型升级混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1390,26 +1711,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.44</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.53</t>
+          <t>70.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6397</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1418,36 +1739,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>011346</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.53</t>
+          <t>67.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5141</t>
+          <t>0.1541</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1456,36 +1777,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.65</t>
+          <t>76.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1430</t>
+          <t>0.1418</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1494,32 +1815,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501201</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+          <t>华商乐享互联灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>88.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1422</t>
+          <t>0.1058</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1532,36 +1853,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006369</t>
+          <t>012454</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>弘毅远方国企转型升级混合</t>
+          <t>淳厚鑫悦混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>76.84</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.1046</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1570,36 +1891,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010403</t>
+          <t>012455</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商景气优选混合</t>
+          <t>淳厚鑫悦混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>76.84</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1608,36 +1929,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>168401</t>
+          <t>006369</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
+          <t>弘毅远方国企转型升级混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.65</t>
+          <t>87.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1646,6 +1967,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1777,7 +2420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603728-鸣志电器.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>4.95</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.09</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.99</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.53</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.66</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -583,6 +600,1960 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8487</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7749</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4086</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014243</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商改革创新股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014267</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014558</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商品质慧选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016052</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商改革创新股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>016070</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014268</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014559</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商品质慧选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>016050</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>016048</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1208,7 +3179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1637,328 +3608,6 @@
       </c>
       <c r="H11" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4375</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011346</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>67.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1541</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1418</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012454</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>淳厚鑫悦混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>76.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1046</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012455</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>淳厚鑫悦混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006369</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>弘毅远方国企转型升级混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2033,26 +3682,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.44</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.53</t>
+          <t>70.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6397</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2061,36 +3710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>011346</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.53</t>
+          <t>67.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5141</t>
+          <t>0.1541</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2099,36 +3748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.65</t>
+          <t>76.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1430</t>
+          <t>0.1418</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2137,32 +3786,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501201</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+          <t>华商乐享互联灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>88.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1422</t>
+          <t>0.1058</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2175,36 +3824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006369</t>
+          <t>012454</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>弘毅远方国企转型升级混合</t>
+          <t>淳厚鑫悦混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>76.84</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.1046</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2213,36 +3862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010403</t>
+          <t>012455</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商景气优选混合</t>
+          <t>淳厚鑫悦混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>76.84</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2251,36 +3900,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>168401</t>
+          <t>006369</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
+          <t>弘毅远方国企转型升级混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.65</t>
+          <t>87.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2289,6 +3938,328 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2420,7 +4391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
